--- a/LIBRO DE INSCRIPCION.xlsx
+++ b/LIBRO DE INSCRIPCION.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5F45E1-749B-44A3-8664-EA1ECCA5C285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1265718F-74A0-40A0-BBF2-731BACB841F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3E6E33ED-A081-4FAA-A99D-C57EBE2EB552}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="114">
   <si>
     <t>NOMBRE Y APELLIDO</t>
   </si>
@@ -341,9 +341,6 @@
     <t>FRANKLIN ROCHA BALDERRAMA</t>
   </si>
   <si>
-    <t>GLORIA MARIANA ROSADO ABASTOLOR</t>
-  </si>
-  <si>
     <t>FERNANDO ARANCIBIA MERIDA</t>
   </si>
   <si>
@@ -372,6 +369,12 @@
   </si>
   <si>
     <t xml:space="preserve"> ins 21/5/2022</t>
+  </si>
+  <si>
+    <t>ins 24 mayo Nuevo Paquete</t>
+  </si>
+  <si>
+    <t>pago todo no ddebe nada 25 mayo</t>
   </si>
 </sst>
 </file>
@@ -451,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -461,7 +464,8 @@
     <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -778,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B2125E-2BB5-4299-8347-F283E2F23F2A}">
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,11 +1238,11 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>400</v>
@@ -1540,11 +1544,11 @@
         <v>10</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E30">
         <v>225</v>
@@ -1918,21 +1922,24 @@
         <v>20</v>
       </c>
       <c r="C45">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E45">
         <v>400</v>
       </c>
       <c r="F45">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G45">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2160,7 +2167,7 @@
         <v>175</v>
       </c>
       <c r="H54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2305,11 +2312,11 @@
         <v>20</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D60">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E60">
         <v>400</v>
@@ -2408,11 +2415,11 @@
         <v>5</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E64">
         <v>125</v>
@@ -2433,11 +2440,11 @@
         <v>20</v>
       </c>
       <c r="C65">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D65">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E65">
         <v>400</v>
@@ -2486,7 +2493,7 @@
         <v>10</v>
       </c>
       <c r="D67" s="5">
-        <f t="shared" ref="D67:D87" si="6">B67-C67</f>
+        <f t="shared" ref="D67:D86" si="6">B67-C67</f>
         <v>0</v>
       </c>
       <c r="E67" s="5">
@@ -2496,7 +2503,7 @@
         <v>225</v>
       </c>
       <c r="G67" s="5">
-        <f t="shared" ref="G67:G87" si="7">E67-F67</f>
+        <f t="shared" ref="G67:G86" si="7">E67-F67</f>
         <v>0</v>
       </c>
     </row>
@@ -2676,11 +2683,11 @@
         <v>20</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E74">
         <v>400</v>
@@ -2696,213 +2703,216 @@
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B75" s="9">
-        <v>5</v>
-      </c>
-      <c r="C75" s="9">
-        <v>5</v>
-      </c>
-      <c r="D75" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E75" s="9">
-        <v>125</v>
-      </c>
-      <c r="F75" s="9">
-        <v>125</v>
-      </c>
-      <c r="G75" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>41</v>
       </c>
-      <c r="B76">
-        <v>20</v>
-      </c>
-      <c r="C76">
+      <c r="B75">
+        <v>20</v>
+      </c>
+      <c r="C75">
         <v>4</v>
       </c>
-      <c r="D76">
+      <c r="D75">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="E76">
-        <v>400</v>
-      </c>
-      <c r="F76">
-        <v>400</v>
-      </c>
-      <c r="G76">
+      <c r="E75">
+        <v>400</v>
+      </c>
+      <c r="F75">
+        <v>400</v>
+      </c>
+      <c r="G75">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H75" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
+    <row r="76" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B76" s="7">
         <v>10</v>
       </c>
-      <c r="C77" s="7">
-        <v>5</v>
-      </c>
-      <c r="D77" s="7">
+      <c r="C76" s="7">
+        <v>5</v>
+      </c>
+      <c r="D76" s="7">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E76" s="7">
         <v>300</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F76" s="7">
         <v>180</v>
       </c>
-      <c r="G77" s="7">
+      <c r="G76" s="7">
         <f t="shared" si="7"/>
         <v>120</v>
       </c>
-      <c r="H77" s="7" t="s">
+      <c r="H76" s="7" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77">
+        <v>20</v>
+      </c>
+      <c r="C77">
+        <v>7</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="E77">
+        <v>400</v>
+      </c>
+      <c r="F77">
+        <v>200</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="7"/>
+        <v>200</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B78">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E78">
-        <v>400</v>
+        <v>125</v>
       </c>
       <c r="F78">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="G78">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D79">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E79">
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="F79">
         <v>125</v>
       </c>
       <c r="G79">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B80">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E80">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="F80">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="G80">
         <f t="shared" si="7"/>
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B81">
         <v>5</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D81">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E81">
         <v>125</v>
       </c>
       <c r="F81">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="G81">
         <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B82" s="5">
-        <v>5</v>
-      </c>
-      <c r="C82" s="5">
-        <v>5</v>
-      </c>
-      <c r="D82" s="5">
+        <v>0</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>75</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
+      <c r="D82">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E82" s="5">
-        <v>125</v>
-      </c>
-      <c r="F82" s="5">
-        <v>125</v>
-      </c>
-      <c r="G82" s="5">
+        <v>6</v>
+      </c>
+      <c r="E82">
+        <v>225</v>
+      </c>
+      <c r="F82">
+        <v>225</v>
+      </c>
+      <c r="G82">
         <f t="shared" si="7"/>
         <v>0</v>
+      </c>
+      <c r="H82" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -2910,88 +2920,88 @@
         <v>106</v>
       </c>
       <c r="B83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D83">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E83">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="F83">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="G83">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H83" s="8" t="s">
-        <v>112</v>
+      <c r="H83" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="B84">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D84">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E84">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="F84">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="G84">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>107</v>
+      <c r="A85" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="B85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E85">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="F85">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="G85">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>108</v>
+      <c r="A86" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="B86">
         <v>5</v>
@@ -3014,36 +3024,11 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>74</v>
-      </c>
-      <c r="B87">
-        <v>5</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="E87">
-        <v>125</v>
-      </c>
-      <c r="F87">
-        <v>125</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H87" t="s">
-        <v>109</v>
-      </c>
+      <c r="A87" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
